--- a/DSA sheet.xlsx
+++ b/DSA sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAEAA39-AD12-4FE8-AFB0-4865731B84F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EB9AFF-CCE7-4406-8704-FBCE0A829AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3189,7 +3189,9 @@
         <v>26</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="41"/>
+      <c r="D13" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>27</v>
       </c>
@@ -33195,21 +33197,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{E36D8F7A-9209-4E7A-88E2-F746759CABE7}"/>
+      <autoFilter ref="A293:C332" xr:uid="{9FF3FF0A-7904-45D3-AC7E-F8F55C758BC1}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{12D7B1C4-AF35-44EA-8FB9-F435CE1A8B07}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{4C8B925C-C761-400A-9F9F-5AFFCEDC1294}"/>
+      <autoFilter ref="A11:D37" xr:uid="{DD53B4FE-9D39-4A36-B23B-E2FADE919530}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{62F67BEC-C1D0-433E-AC8A-E265D87A2A56}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{DA7A6D23-505D-404F-AD59-75FBD63498FD}"/>
+      <autoFilter ref="A11:C37" xr:uid="{07FB6A36-360C-4933-A936-706294F98488}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA sheet.xlsx
+++ b/DSA sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EB9AFF-CCE7-4406-8704-FBCE0A829AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4AF0E7-3323-4DB0-A40F-1489EBFB83E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3228,7 +3228,9 @@
         <v>28</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E14" s="12" t="s">
         <v>29</v>
       </c>
@@ -33197,21 +33199,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{9FF3FF0A-7904-45D3-AC7E-F8F55C758BC1}"/>
+      <autoFilter ref="A11:C37" xr:uid="{41924B1C-8BD3-4A38-9C04-07345EF8AED7}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{20D7A443-C0B9-45EC-899A-5D1F4CBA63B8}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{12D7B1C4-AF35-44EA-8FB9-F435CE1A8B07}"/>
+      <autoFilter ref="A11:D37" xr:uid="{5CAC3462-1EE1-400D-B11C-9B21DBCB24E1}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{DD53B4FE-9D39-4A36-B23B-E2FADE919530}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{07FB6A36-360C-4933-A936-706294F98488}"/>
+      <autoFilter ref="A293:C332" xr:uid="{F94E14BF-ADA0-4E4B-9DD5-5F65441286D6}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA sheet.xlsx
+++ b/DSA sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4AF0E7-3323-4DB0-A40F-1489EBFB83E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D49BE4-AA70-41F3-9E08-F845A3D1A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2741,8 +2741,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3267,7 +3267,9 @@
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="41"/>
+      <c r="D15" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E15" s="12" t="s">
         <v>22</v>
       </c>
@@ -33199,21 +33201,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{41924B1C-8BD3-4A38-9C04-07345EF8AED7}"/>
+      <autoFilter ref="A293:C332" xr:uid="{4335C351-A2E8-4225-A369-424F88C6D34F}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{309D80DC-4FB7-427D-87B3-2A937F952BE1}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{20D7A443-C0B9-45EC-899A-5D1F4CBA63B8}"/>
+      <autoFilter ref="A11:D37" xr:uid="{F52B71CD-DB36-4748-AE45-864A89F10C55}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{5CAC3462-1EE1-400D-B11C-9B21DBCB24E1}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{F94E14BF-ADA0-4E4B-9DD5-5F65441286D6}"/>
+      <autoFilter ref="A11:C37" xr:uid="{3D1B069F-59E8-462D-8741-FF3DDF0C0B39}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA sheet.xlsx
+++ b/DSA sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D49BE4-AA70-41F3-9E08-F845A3D1A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDE787-BFAF-4187-B6A8-D8207DD80B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3306,9 @@
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
@@ -33201,21 +33203,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{4335C351-A2E8-4225-A369-424F88C6D34F}"/>
+      <autoFilter ref="A11:C37" xr:uid="{1A93DA6B-E176-43A0-895A-A2CD4BAB1D29}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{4352EF5D-4100-4B29-9009-B2DE35D10913}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{309D80DC-4FB7-427D-87B3-2A937F952BE1}"/>
+      <autoFilter ref="A11:D37" xr:uid="{8C97010D-526C-4305-A62E-79F3D2B6BFB3}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F52B71CD-DB36-4748-AE45-864A89F10C55}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{3D1B069F-59E8-462D-8741-FF3DDF0C0B39}"/>
+      <autoFilter ref="A293:C332" xr:uid="{922E09F8-E9BE-458F-9160-75965EE1148A}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
